--- a/Excel Data Visualization & Pivot Table Analytics/Excel Data Visualization & Pivot Table Analytics.xlsx
+++ b/Excel Data Visualization & Pivot Table Analytics/Excel Data Visualization & Pivot Table Analytics.xlsx
@@ -5,16 +5,23 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Advanced_Excel_for_Data_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Advanced_Excel_for_Data_Analysis\Excel Data Visualization &amp; Pivot Table Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3810" windowHeight="3060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3810" windowHeight="3060" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="10" r:id="rId5"/>
+    <pivotCache cacheId="16" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="130">
   <si>
     <t>Order ID</t>
   </si>
@@ -408,6 +415,12 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Sum of Profit</t>
+  </si>
+  <si>
+    <t>Sum of Unit Price</t>
   </si>
 </sst>
 </file>
@@ -451,15 +464,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -470,6 +506,4756 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-111094960"/>
+        <c:axId val="-111093872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-111094960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-111093872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-111093872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-111094960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel Data Visualization &amp; Pivot Table Analytics.xlsx]Sheet3!PivotTable6</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Sum of Profit by Category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fashion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Home Decor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4850</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3960</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-109865552"/>
+        <c:axId val="-109853584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-109865552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-109853584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-109853584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-109865552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel Data Visualization &amp; Pivot Table Analytics.xlsx]Sheet4!PivotTable9</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Sum of Unit Price by City</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Bangalore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chennai</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Delhi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hyderabad</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kolkata</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mumbai</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pune</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-111106384"/>
+        <c:axId val="-111100400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-111106384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-111100400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-111100400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-111106384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="DELL 3420" refreshedDate="45987.441861921296" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="50">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table3"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="Order ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1001" maxValue="1050"/>
+    </cacheField>
+    <cacheField name="Order Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-03T00:00:00" maxDate="2024-02-18T00:00:00"/>
+    </cacheField>
+    <cacheField name="Customer Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="City" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Electronics"/>
+        <s v="Fashion"/>
+        <s v="Home Decor"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Product Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Order Status" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Unit Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="149" maxValue="24999"/>
+    </cacheField>
+    <cacheField name="Quantity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+    </cacheField>
+    <cacheField name="Payment Mode" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Discount %" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Profit" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-149" maxValue="5000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="DELL 3420" refreshedDate="45987.44255324074" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="50">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table3"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="Order ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1001" maxValue="1050"/>
+    </cacheField>
+    <cacheField name="Order Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-03T00:00:00" maxDate="2024-02-18T00:00:00"/>
+    </cacheField>
+    <cacheField name="Customer Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="City" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Hyderabad"/>
+        <s v="Bangalore"/>
+        <s v="Delhi"/>
+        <s v="Mumbai"/>
+        <s v="Pune"/>
+        <s v="Kolkata"/>
+        <s v="Chennai"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Product Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Order Status" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Unit Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="149" maxValue="24999"/>
+    </cacheField>
+    <cacheField name="Quantity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+    </cacheField>
+    <cacheField name="Payment Mode" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Discount %" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Profit" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-149" maxValue="5000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="50">
+  <r>
+    <n v="1001"/>
+    <d v="2024-01-03T00:00:00"/>
+    <s v="Rahul Sharma"/>
+    <s v="Hyderabad"/>
+    <x v="0"/>
+    <s v="Wireless Mouse"/>
+    <s v="Delivered"/>
+    <n v="799"/>
+    <n v="2"/>
+    <s v="UPI"/>
+    <n v="5"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="Pooja Verma"/>
+    <s v="Bangalore"/>
+    <x v="0"/>
+    <s v="Keyboard"/>
+    <s v="Delivered"/>
+    <n v="1299"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="280"/>
+  </r>
+  <r>
+    <n v="1003"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Amit Singh"/>
+    <s v="Delhi"/>
+    <x v="1"/>
+    <s v="Sports Shoes"/>
+    <s v="Delivered"/>
+    <n v="2499"/>
+    <n v="1"/>
+    <s v="Card"/>
+    <n v="10"/>
+    <n v="600"/>
+  </r>
+  <r>
+    <n v="1004"/>
+    <d v="2024-01-07T00:00:00"/>
+    <s v="Komal Jain"/>
+    <s v="Mumbai"/>
+    <x v="2"/>
+    <s v="Table Lamp"/>
+    <s v="Delivered"/>
+    <n v="999"/>
+    <n v="3"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="720"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="Suresh Rao"/>
+    <s v="Pune"/>
+    <x v="0"/>
+    <s v="Earbuds"/>
+    <s v="Returned"/>
+    <n v="1499"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="-149"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Riya Gupta"/>
+    <s v="Kolkata"/>
+    <x v="0"/>
+    <s v="Power Bank"/>
+    <s v="Delivered"/>
+    <n v="1099"/>
+    <n v="2"/>
+    <s v="Card"/>
+    <n v="5"/>
+    <n v="460"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Karan Mehta"/>
+    <s v="Chennai"/>
+    <x v="1"/>
+    <s v="Men T-Shirt"/>
+    <s v="Delivered"/>
+    <n v="599"/>
+    <n v="3"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="1008"/>
+    <d v="2024-01-10T00:00:00"/>
+    <s v="Deepak Kumar"/>
+    <s v="Hyderabad"/>
+    <x v="2"/>
+    <s v="Wall Clock"/>
+    <s v="Delivered"/>
+    <n v="1299"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="5"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <n v="1009"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="Nikita Sharma"/>
+    <s v="Bangalore"/>
+    <x v="1"/>
+    <s v="Handbag"/>
+    <s v="Delivered"/>
+    <n v="1999"/>
+    <n v="1"/>
+    <s v="Card"/>
+    <n v="8"/>
+    <n v="450"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <d v="2024-01-12T00:00:00"/>
+    <s v="Vishal Singh"/>
+    <s v="Mumbai"/>
+    <x v="0"/>
+    <s v="Smartwatch"/>
+    <s v="Cancelled"/>
+    <n v="2999"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1011"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Harsh Patel"/>
+    <s v="Pune"/>
+    <x v="2"/>
+    <s v="Bedside Lamp"/>
+    <s v="Delivered"/>
+    <n v="899"/>
+    <n v="2"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <n v="1012"/>
+    <d v="2024-01-14T00:00:00"/>
+    <s v="Aisha Khan"/>
+    <s v="Delhi"/>
+    <x v="0"/>
+    <s v="USB Cable"/>
+    <s v="Delivered"/>
+    <n v="299"/>
+    <n v="4"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <n v="1013"/>
+    <d v="2024-01-14T00:00:00"/>
+    <s v="Anjali Rao"/>
+    <s v="Chennai"/>
+    <x v="1"/>
+    <s v="Kurti"/>
+    <s v="Delivered"/>
+    <n v="799"/>
+    <n v="1"/>
+    <s v="Card"/>
+    <n v="5"/>
+    <n v="150"/>
+  </r>
+  <r>
+    <n v="1014"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Parth Shah"/>
+    <s v="Kolkata"/>
+    <x v="0"/>
+    <s v="Bluetooth Speaker"/>
+    <s v="Delivered"/>
+    <n v="2499"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="10"/>
+    <n v="550"/>
+  </r>
+  <r>
+    <n v="1015"/>
+    <d v="2024-01-16T00:00:00"/>
+    <s v="Mohit Jain"/>
+    <s v="Bangalore"/>
+    <x v="2"/>
+    <s v="Flower Vase"/>
+    <s v="Delivered"/>
+    <n v="599"/>
+    <n v="2"/>
+    <s v="UPI"/>
+    <n v="5"/>
+    <n v="240"/>
+  </r>
+  <r>
+    <n v="1016"/>
+    <d v="2024-01-17T00:00:00"/>
+    <s v="Kritika Sen"/>
+    <s v="Hyderabad"/>
+    <x v="1"/>
+    <s v="Saree"/>
+    <s v="Delivered"/>
+    <n v="1499"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <d v="2024-01-17T00:00:00"/>
+    <s v="Sumit Roy"/>
+    <s v="Pune"/>
+    <x v="0"/>
+    <s v="Phone Cover"/>
+    <s v="Delivered"/>
+    <n v="299"/>
+    <n v="3"/>
+    <s v="Card"/>
+    <n v="0"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <n v="1018"/>
+    <d v="2024-01-18T00:00:00"/>
+    <s v="Priya Mehta"/>
+    <s v="Delhi"/>
+    <x v="0"/>
+    <s v="Webcam"/>
+    <s v="Delivered"/>
+    <n v="1899"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="5"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="1019"/>
+    <d v="2024-01-19T00:00:00"/>
+    <s v="Rohit Sharma"/>
+    <s v="Mumbai"/>
+    <x v="1"/>
+    <s v="Jeans"/>
+    <s v="Delivered"/>
+    <n v="1299"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <d v="2024-01-20T00:00:00"/>
+    <s v="Nisha Agarwal"/>
+    <s v="Chennai"/>
+    <x v="2"/>
+    <s v="Candle Set"/>
+    <s v="Delivered"/>
+    <n v="499"/>
+    <n v="4"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="1021"/>
+    <d v="2024-01-21T00:00:00"/>
+    <s v="Arjun Gupta"/>
+    <s v="Kolkata"/>
+    <x v="0"/>
+    <s v="Earphones"/>
+    <s v="Delivered"/>
+    <n v="699"/>
+    <n v="2"/>
+    <s v="Card"/>
+    <n v="5"/>
+    <n v="260"/>
+  </r>
+  <r>
+    <n v="1022"/>
+    <d v="2024-01-22T00:00:00"/>
+    <s v="Mansi Shah"/>
+    <s v="Delhi"/>
+    <x v="1"/>
+    <s v="Top"/>
+    <s v="Delivered"/>
+    <n v="499"/>
+    <n v="3"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="280"/>
+  </r>
+  <r>
+    <n v="1023"/>
+    <d v="2024-01-23T00:00:00"/>
+    <s v="Kunal Verma"/>
+    <s v="Hyderabad"/>
+    <x v="2"/>
+    <s v="Curtains"/>
+    <s v="Delivered"/>
+    <n v="999"/>
+    <n v="2"/>
+    <s v="COD"/>
+    <n v="5"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <n v="1024"/>
+    <d v="2024-01-24T00:00:00"/>
+    <s v="Ankit Patel"/>
+    <s v="Bangalore"/>
+    <x v="1"/>
+    <s v="Jacket"/>
+    <s v="Delivered"/>
+    <n v="2899"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="10"/>
+    <n v="600"/>
+  </r>
+  <r>
+    <n v="1025"/>
+    <d v="2024-01-25T00:00:00"/>
+    <s v="Sweta Singh"/>
+    <s v="Mumbai"/>
+    <x v="0"/>
+    <s v="Trimmer"/>
+    <s v="Delivered"/>
+    <n v="1599"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="1026"/>
+    <d v="2024-01-26T00:00:00"/>
+    <s v="Vikas Rao"/>
+    <s v="Pune"/>
+    <x v="0"/>
+    <s v="Charger"/>
+    <s v="Delivered"/>
+    <n v="499"/>
+    <n v="3"/>
+    <s v="Card"/>
+    <n v="0"/>
+    <n v="210"/>
+  </r>
+  <r>
+    <n v="1027"/>
+    <d v="2024-01-27T00:00:00"/>
+    <s v="Divya Nair"/>
+    <s v="Chennai"/>
+    <x v="1"/>
+    <s v="Earrings"/>
+    <s v="Delivered"/>
+    <n v="299"/>
+    <n v="2"/>
+    <s v="Card"/>
+    <n v="0"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <n v="1028"/>
+    <d v="2024-01-28T00:00:00"/>
+    <s v="Akash Jain"/>
+    <s v="Hyderabad"/>
+    <x v="2"/>
+    <s v="Cushion Cover"/>
+    <s v="Delivered"/>
+    <n v="399"/>
+    <n v="4"/>
+    <s v="COD"/>
+    <n v="5"/>
+    <n v="260"/>
+  </r>
+  <r>
+    <n v="1029"/>
+    <d v="2024-01-28T00:00:00"/>
+    <s v="Megha Sharma"/>
+    <s v="Delhi"/>
+    <x v="0"/>
+    <s v="Monitor"/>
+    <s v="Delivered"/>
+    <n v="7999"/>
+    <n v="1"/>
+    <s v="Card"/>
+    <n v="5"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <n v="1030"/>
+    <d v="2024-01-29T00:00:00"/>
+    <s v="Rajeev Kumar"/>
+    <s v="Bangalore"/>
+    <x v="0"/>
+    <s v="Router"/>
+    <s v="Delivered"/>
+    <n v="1999"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="8"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="1031"/>
+    <d v="2024-01-30T00:00:00"/>
+    <s v="Shruti Singh"/>
+    <s v="Mumbai"/>
+    <x v="1"/>
+    <s v="Sandals"/>
+    <s v="Delivered"/>
+    <n v="999"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="180"/>
+  </r>
+  <r>
+    <n v="1032"/>
+    <d v="2024-01-31T00:00:00"/>
+    <s v="Harish Kumar"/>
+    <s v="Pune"/>
+    <x v="2"/>
+    <s v="Doormat"/>
+    <s v="Delivered"/>
+    <n v="299"/>
+    <n v="3"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <n v="1033"/>
+    <d v="2024-02-01T00:00:00"/>
+    <s v="Roshni Patel"/>
+    <s v="Kolkata"/>
+    <x v="0"/>
+    <s v="LED Bulb"/>
+    <s v="Delivered"/>
+    <n v="149"/>
+    <n v="6"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="160"/>
+  </r>
+  <r>
+    <n v="1034"/>
+    <d v="2024-02-02T00:00:00"/>
+    <s v="Ananya Mehra"/>
+    <s v="Delhi"/>
+    <x v="1"/>
+    <s v="Shirt"/>
+    <s v="Delivered"/>
+    <n v="899"/>
+    <n v="1"/>
+    <s v="Card"/>
+    <n v="0"/>
+    <n v="180"/>
+  </r>
+  <r>
+    <n v="1035"/>
+    <d v="2024-02-03T00:00:00"/>
+    <s v="Samir Gupta"/>
+    <s v="Mumbai"/>
+    <x v="2"/>
+    <s v="Showpiece"/>
+    <s v="Delivered"/>
+    <n v="1299"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="5"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <n v="1036"/>
+    <d v="2024-02-04T00:00:00"/>
+    <s v="Kavya Sharma"/>
+    <s v="Bangalore"/>
+    <x v="0"/>
+    <s v="Printer"/>
+    <s v="Delivered"/>
+    <n v="5999"/>
+    <n v="1"/>
+    <s v="Card"/>
+    <n v="10"/>
+    <n v="1200"/>
+  </r>
+  <r>
+    <n v="1037"/>
+    <d v="2024-02-05T00:00:00"/>
+    <s v="Nitin Rao"/>
+    <s v="Pune"/>
+    <x v="1"/>
+    <s v="Shorts"/>
+    <s v="Delivered"/>
+    <n v="699"/>
+    <n v="2"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="220"/>
+  </r>
+  <r>
+    <n v="1038"/>
+    <d v="2024-02-05T00:00:00"/>
+    <s v="Muskan Jain"/>
+    <s v="Chennai"/>
+    <x v="2"/>
+    <s v="Table Mat"/>
+    <s v="Delivered"/>
+    <n v="249"/>
+    <n v="3"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="110"/>
+  </r>
+  <r>
+    <n v="1039"/>
+    <d v="2024-02-06T00:00:00"/>
+    <s v="Shivam Singh"/>
+    <s v="Hyderabad"/>
+    <x v="0"/>
+    <s v="Tablet"/>
+    <s v="Delivered"/>
+    <n v="14999"/>
+    <n v="1"/>
+    <s v="Card"/>
+    <n v="5"/>
+    <n v="2800"/>
+  </r>
+  <r>
+    <n v="1040"/>
+    <d v="2024-02-07T00:00:00"/>
+    <s v="Aryan Patel"/>
+    <s v="Delhi"/>
+    <x v="1"/>
+    <s v="Watch"/>
+    <s v="Delivered"/>
+    <n v="1999"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="1041"/>
+    <d v="2024-02-08T00:00:00"/>
+    <s v="Reema Gupta"/>
+    <s v="Mumbai"/>
+    <x v="2"/>
+    <s v="Plant Pot"/>
+    <s v="Delivered"/>
+    <n v="699"/>
+    <n v="2"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <n v="1042"/>
+    <d v="2024-02-09T00:00:00"/>
+    <s v="Sachin Verma"/>
+    <s v="Pune"/>
+    <x v="0"/>
+    <s v="Headphones"/>
+    <s v="Delivered"/>
+    <n v="1999"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <n v="1043"/>
+    <d v="2024-02-10T00:00:00"/>
+    <s v="Naina Shah"/>
+    <s v="Kolkata"/>
+    <x v="1"/>
+    <s v="Scarf"/>
+    <s v="Delivered"/>
+    <n v="299"/>
+    <n v="2"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <n v="1044"/>
+    <d v="2024-02-11T00:00:00"/>
+    <s v="Manish Kumar"/>
+    <s v="Bangalore"/>
+    <x v="2"/>
+    <s v="Photo Frame"/>
+    <s v="Delivered"/>
+    <n v="499"/>
+    <n v="3"/>
+    <s v="Card"/>
+    <n v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <n v="1045"/>
+    <d v="2024-02-12T00:00:00"/>
+    <s v="Neha Singh"/>
+    <s v="Hyderabad"/>
+    <x v="0"/>
+    <s v="Laptop Stand"/>
+    <s v="Delivered"/>
+    <n v="1299"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="5"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <n v="1046"/>
+    <d v="2024-02-13T00:00:00"/>
+    <s v="Aayush Jain"/>
+    <s v="Delhi"/>
+    <x v="1"/>
+    <s v="Formal Shoes"/>
+    <s v="Delivered"/>
+    <n v="2499"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="10"/>
+    <n v="550"/>
+  </r>
+  <r>
+    <n v="1047"/>
+    <d v="2024-02-14T00:00:00"/>
+    <s v="Ritika Roy"/>
+    <s v="Mumbai"/>
+    <x v="2"/>
+    <s v="LED Strip"/>
+    <s v="Delivered"/>
+    <n v="399"/>
+    <n v="5"/>
+    <s v="Card"/>
+    <n v="0"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <n v="1048"/>
+    <d v="2024-02-15T00:00:00"/>
+    <s v="Jay Shah"/>
+    <s v="Pune"/>
+    <x v="0"/>
+    <s v="Camera"/>
+    <s v="Delivered"/>
+    <n v="24999"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="10"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <n v="1049"/>
+    <d v="2024-02-16T00:00:00"/>
+    <s v="Mona Rao"/>
+    <s v="Kolkata"/>
+    <x v="1"/>
+    <s v="Leggings"/>
+    <s v="Delivered"/>
+    <n v="499"/>
+    <n v="2"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="150"/>
+  </r>
+  <r>
+    <n v="1050"/>
+    <d v="2024-02-17T00:00:00"/>
+    <s v="Sunny Kumar"/>
+    <s v="Bangalore"/>
+    <x v="2"/>
+    <s v="Mirror"/>
+    <s v="Delivered"/>
+    <n v="999"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="5"/>
+    <n v="180"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="50">
+  <r>
+    <n v="1001"/>
+    <d v="2024-01-03T00:00:00"/>
+    <s v="Rahul Sharma"/>
+    <x v="0"/>
+    <s v="Electronics"/>
+    <s v="Wireless Mouse"/>
+    <s v="Delivered"/>
+    <n v="799"/>
+    <n v="2"/>
+    <s v="UPI"/>
+    <n v="5"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="Pooja Verma"/>
+    <x v="1"/>
+    <s v="Electronics"/>
+    <s v="Keyboard"/>
+    <s v="Delivered"/>
+    <n v="1299"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="280"/>
+  </r>
+  <r>
+    <n v="1003"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Amit Singh"/>
+    <x v="2"/>
+    <s v="Fashion"/>
+    <s v="Sports Shoes"/>
+    <s v="Delivered"/>
+    <n v="2499"/>
+    <n v="1"/>
+    <s v="Card"/>
+    <n v="10"/>
+    <n v="600"/>
+  </r>
+  <r>
+    <n v="1004"/>
+    <d v="2024-01-07T00:00:00"/>
+    <s v="Komal Jain"/>
+    <x v="3"/>
+    <s v="Home Decor"/>
+    <s v="Table Lamp"/>
+    <s v="Delivered"/>
+    <n v="999"/>
+    <n v="3"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="720"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="Suresh Rao"/>
+    <x v="4"/>
+    <s v="Electronics"/>
+    <s v="Earbuds"/>
+    <s v="Returned"/>
+    <n v="1499"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="-149"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Riya Gupta"/>
+    <x v="5"/>
+    <s v="Electronics"/>
+    <s v="Power Bank"/>
+    <s v="Delivered"/>
+    <n v="1099"/>
+    <n v="2"/>
+    <s v="Card"/>
+    <n v="5"/>
+    <n v="460"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Karan Mehta"/>
+    <x v="6"/>
+    <s v="Fashion"/>
+    <s v="Men T-Shirt"/>
+    <s v="Delivered"/>
+    <n v="599"/>
+    <n v="3"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="1008"/>
+    <d v="2024-01-10T00:00:00"/>
+    <s v="Deepak Kumar"/>
+    <x v="0"/>
+    <s v="Home Decor"/>
+    <s v="Wall Clock"/>
+    <s v="Delivered"/>
+    <n v="1299"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="5"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <n v="1009"/>
+    <d v="2024-01-11T00:00:00"/>
+    <s v="Nikita Sharma"/>
+    <x v="1"/>
+    <s v="Fashion"/>
+    <s v="Handbag"/>
+    <s v="Delivered"/>
+    <n v="1999"/>
+    <n v="1"/>
+    <s v="Card"/>
+    <n v="8"/>
+    <n v="450"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <d v="2024-01-12T00:00:00"/>
+    <s v="Vishal Singh"/>
+    <x v="3"/>
+    <s v="Electronics"/>
+    <s v="Smartwatch"/>
+    <s v="Cancelled"/>
+    <n v="2999"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1011"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Harsh Patel"/>
+    <x v="4"/>
+    <s v="Home Decor"/>
+    <s v="Bedside Lamp"/>
+    <s v="Delivered"/>
+    <n v="899"/>
+    <n v="2"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <n v="1012"/>
+    <d v="2024-01-14T00:00:00"/>
+    <s v="Aisha Khan"/>
+    <x v="2"/>
+    <s v="Electronics"/>
+    <s v="USB Cable"/>
+    <s v="Delivered"/>
+    <n v="299"/>
+    <n v="4"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <n v="1013"/>
+    <d v="2024-01-14T00:00:00"/>
+    <s v="Anjali Rao"/>
+    <x v="6"/>
+    <s v="Fashion"/>
+    <s v="Kurti"/>
+    <s v="Delivered"/>
+    <n v="799"/>
+    <n v="1"/>
+    <s v="Card"/>
+    <n v="5"/>
+    <n v="150"/>
+  </r>
+  <r>
+    <n v="1014"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Parth Shah"/>
+    <x v="5"/>
+    <s v="Electronics"/>
+    <s v="Bluetooth Speaker"/>
+    <s v="Delivered"/>
+    <n v="2499"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="10"/>
+    <n v="550"/>
+  </r>
+  <r>
+    <n v="1015"/>
+    <d v="2024-01-16T00:00:00"/>
+    <s v="Mohit Jain"/>
+    <x v="1"/>
+    <s v="Home Decor"/>
+    <s v="Flower Vase"/>
+    <s v="Delivered"/>
+    <n v="599"/>
+    <n v="2"/>
+    <s v="UPI"/>
+    <n v="5"/>
+    <n v="240"/>
+  </r>
+  <r>
+    <n v="1016"/>
+    <d v="2024-01-17T00:00:00"/>
+    <s v="Kritika Sen"/>
+    <x v="0"/>
+    <s v="Fashion"/>
+    <s v="Saree"/>
+    <s v="Delivered"/>
+    <n v="1499"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <d v="2024-01-17T00:00:00"/>
+    <s v="Sumit Roy"/>
+    <x v="4"/>
+    <s v="Electronics"/>
+    <s v="Phone Cover"/>
+    <s v="Delivered"/>
+    <n v="299"/>
+    <n v="3"/>
+    <s v="Card"/>
+    <n v="0"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <n v="1018"/>
+    <d v="2024-01-18T00:00:00"/>
+    <s v="Priya Mehta"/>
+    <x v="2"/>
+    <s v="Electronics"/>
+    <s v="Webcam"/>
+    <s v="Delivered"/>
+    <n v="1899"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="5"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="1019"/>
+    <d v="2024-01-19T00:00:00"/>
+    <s v="Rohit Sharma"/>
+    <x v="3"/>
+    <s v="Fashion"/>
+    <s v="Jeans"/>
+    <s v="Delivered"/>
+    <n v="1299"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <d v="2024-01-20T00:00:00"/>
+    <s v="Nisha Agarwal"/>
+    <x v="6"/>
+    <s v="Home Decor"/>
+    <s v="Candle Set"/>
+    <s v="Delivered"/>
+    <n v="499"/>
+    <n v="4"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="1021"/>
+    <d v="2024-01-21T00:00:00"/>
+    <s v="Arjun Gupta"/>
+    <x v="5"/>
+    <s v="Electronics"/>
+    <s v="Earphones"/>
+    <s v="Delivered"/>
+    <n v="699"/>
+    <n v="2"/>
+    <s v="Card"/>
+    <n v="5"/>
+    <n v="260"/>
+  </r>
+  <r>
+    <n v="1022"/>
+    <d v="2024-01-22T00:00:00"/>
+    <s v="Mansi Shah"/>
+    <x v="2"/>
+    <s v="Fashion"/>
+    <s v="Top"/>
+    <s v="Delivered"/>
+    <n v="499"/>
+    <n v="3"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="280"/>
+  </r>
+  <r>
+    <n v="1023"/>
+    <d v="2024-01-23T00:00:00"/>
+    <s v="Kunal Verma"/>
+    <x v="0"/>
+    <s v="Home Decor"/>
+    <s v="Curtains"/>
+    <s v="Delivered"/>
+    <n v="999"/>
+    <n v="2"/>
+    <s v="COD"/>
+    <n v="5"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <n v="1024"/>
+    <d v="2024-01-24T00:00:00"/>
+    <s v="Ankit Patel"/>
+    <x v="1"/>
+    <s v="Fashion"/>
+    <s v="Jacket"/>
+    <s v="Delivered"/>
+    <n v="2899"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="10"/>
+    <n v="600"/>
+  </r>
+  <r>
+    <n v="1025"/>
+    <d v="2024-01-25T00:00:00"/>
+    <s v="Sweta Singh"/>
+    <x v="3"/>
+    <s v="Electronics"/>
+    <s v="Trimmer"/>
+    <s v="Delivered"/>
+    <n v="1599"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="1026"/>
+    <d v="2024-01-26T00:00:00"/>
+    <s v="Vikas Rao"/>
+    <x v="4"/>
+    <s v="Electronics"/>
+    <s v="Charger"/>
+    <s v="Delivered"/>
+    <n v="499"/>
+    <n v="3"/>
+    <s v="Card"/>
+    <n v="0"/>
+    <n v="210"/>
+  </r>
+  <r>
+    <n v="1027"/>
+    <d v="2024-01-27T00:00:00"/>
+    <s v="Divya Nair"/>
+    <x v="6"/>
+    <s v="Fashion"/>
+    <s v="Earrings"/>
+    <s v="Delivered"/>
+    <n v="299"/>
+    <n v="2"/>
+    <s v="Card"/>
+    <n v="0"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <n v="1028"/>
+    <d v="2024-01-28T00:00:00"/>
+    <s v="Akash Jain"/>
+    <x v="0"/>
+    <s v="Home Decor"/>
+    <s v="Cushion Cover"/>
+    <s v="Delivered"/>
+    <n v="399"/>
+    <n v="4"/>
+    <s v="COD"/>
+    <n v="5"/>
+    <n v="260"/>
+  </r>
+  <r>
+    <n v="1029"/>
+    <d v="2024-01-28T00:00:00"/>
+    <s v="Megha Sharma"/>
+    <x v="2"/>
+    <s v="Electronics"/>
+    <s v="Monitor"/>
+    <s v="Delivered"/>
+    <n v="7999"/>
+    <n v="1"/>
+    <s v="Card"/>
+    <n v="5"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <n v="1030"/>
+    <d v="2024-01-29T00:00:00"/>
+    <s v="Rajeev Kumar"/>
+    <x v="1"/>
+    <s v="Electronics"/>
+    <s v="Router"/>
+    <s v="Delivered"/>
+    <n v="1999"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="8"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="1031"/>
+    <d v="2024-01-30T00:00:00"/>
+    <s v="Shruti Singh"/>
+    <x v="3"/>
+    <s v="Fashion"/>
+    <s v="Sandals"/>
+    <s v="Delivered"/>
+    <n v="999"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="180"/>
+  </r>
+  <r>
+    <n v="1032"/>
+    <d v="2024-01-31T00:00:00"/>
+    <s v="Harish Kumar"/>
+    <x v="4"/>
+    <s v="Home Decor"/>
+    <s v="Doormat"/>
+    <s v="Delivered"/>
+    <n v="299"/>
+    <n v="3"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <n v="1033"/>
+    <d v="2024-02-01T00:00:00"/>
+    <s v="Roshni Patel"/>
+    <x v="5"/>
+    <s v="Electronics"/>
+    <s v="LED Bulb"/>
+    <s v="Delivered"/>
+    <n v="149"/>
+    <n v="6"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="160"/>
+  </r>
+  <r>
+    <n v="1034"/>
+    <d v="2024-02-02T00:00:00"/>
+    <s v="Ananya Mehra"/>
+    <x v="2"/>
+    <s v="Fashion"/>
+    <s v="Shirt"/>
+    <s v="Delivered"/>
+    <n v="899"/>
+    <n v="1"/>
+    <s v="Card"/>
+    <n v="0"/>
+    <n v="180"/>
+  </r>
+  <r>
+    <n v="1035"/>
+    <d v="2024-02-03T00:00:00"/>
+    <s v="Samir Gupta"/>
+    <x v="3"/>
+    <s v="Home Decor"/>
+    <s v="Showpiece"/>
+    <s v="Delivered"/>
+    <n v="1299"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="5"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <n v="1036"/>
+    <d v="2024-02-04T00:00:00"/>
+    <s v="Kavya Sharma"/>
+    <x v="1"/>
+    <s v="Electronics"/>
+    <s v="Printer"/>
+    <s v="Delivered"/>
+    <n v="5999"/>
+    <n v="1"/>
+    <s v="Card"/>
+    <n v="10"/>
+    <n v="1200"/>
+  </r>
+  <r>
+    <n v="1037"/>
+    <d v="2024-02-05T00:00:00"/>
+    <s v="Nitin Rao"/>
+    <x v="4"/>
+    <s v="Fashion"/>
+    <s v="Shorts"/>
+    <s v="Delivered"/>
+    <n v="699"/>
+    <n v="2"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="220"/>
+  </r>
+  <r>
+    <n v="1038"/>
+    <d v="2024-02-05T00:00:00"/>
+    <s v="Muskan Jain"/>
+    <x v="6"/>
+    <s v="Home Decor"/>
+    <s v="Table Mat"/>
+    <s v="Delivered"/>
+    <n v="249"/>
+    <n v="3"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="110"/>
+  </r>
+  <r>
+    <n v="1039"/>
+    <d v="2024-02-06T00:00:00"/>
+    <s v="Shivam Singh"/>
+    <x v="0"/>
+    <s v="Electronics"/>
+    <s v="Tablet"/>
+    <s v="Delivered"/>
+    <n v="14999"/>
+    <n v="1"/>
+    <s v="Card"/>
+    <n v="5"/>
+    <n v="2800"/>
+  </r>
+  <r>
+    <n v="1040"/>
+    <d v="2024-02-07T00:00:00"/>
+    <s v="Aryan Patel"/>
+    <x v="2"/>
+    <s v="Fashion"/>
+    <s v="Watch"/>
+    <s v="Delivered"/>
+    <n v="1999"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="1041"/>
+    <d v="2024-02-08T00:00:00"/>
+    <s v="Reema Gupta"/>
+    <x v="3"/>
+    <s v="Home Decor"/>
+    <s v="Plant Pot"/>
+    <s v="Delivered"/>
+    <n v="699"/>
+    <n v="2"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <n v="1042"/>
+    <d v="2024-02-09T00:00:00"/>
+    <s v="Sachin Verma"/>
+    <x v="4"/>
+    <s v="Electronics"/>
+    <s v="Headphones"/>
+    <s v="Delivered"/>
+    <n v="1999"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <n v="1043"/>
+    <d v="2024-02-10T00:00:00"/>
+    <s v="Naina Shah"/>
+    <x v="5"/>
+    <s v="Fashion"/>
+    <s v="Scarf"/>
+    <s v="Delivered"/>
+    <n v="299"/>
+    <n v="2"/>
+    <s v="UPI"/>
+    <n v="0"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <n v="1044"/>
+    <d v="2024-02-11T00:00:00"/>
+    <s v="Manish Kumar"/>
+    <x v="1"/>
+    <s v="Home Decor"/>
+    <s v="Photo Frame"/>
+    <s v="Delivered"/>
+    <n v="499"/>
+    <n v="3"/>
+    <s v="Card"/>
+    <n v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <n v="1045"/>
+    <d v="2024-02-12T00:00:00"/>
+    <s v="Neha Singh"/>
+    <x v="0"/>
+    <s v="Electronics"/>
+    <s v="Laptop Stand"/>
+    <s v="Delivered"/>
+    <n v="1299"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="5"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <n v="1046"/>
+    <d v="2024-02-13T00:00:00"/>
+    <s v="Aayush Jain"/>
+    <x v="2"/>
+    <s v="Fashion"/>
+    <s v="Formal Shoes"/>
+    <s v="Delivered"/>
+    <n v="2499"/>
+    <n v="1"/>
+    <s v="COD"/>
+    <n v="10"/>
+    <n v="550"/>
+  </r>
+  <r>
+    <n v="1047"/>
+    <d v="2024-02-14T00:00:00"/>
+    <s v="Ritika Roy"/>
+    <x v="3"/>
+    <s v="Home Decor"/>
+    <s v="LED Strip"/>
+    <s v="Delivered"/>
+    <n v="399"/>
+    <n v="5"/>
+    <s v="Card"/>
+    <n v="0"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <n v="1048"/>
+    <d v="2024-02-15T00:00:00"/>
+    <s v="Jay Shah"/>
+    <x v="4"/>
+    <s v="Electronics"/>
+    <s v="Camera"/>
+    <s v="Delivered"/>
+    <n v="24999"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="10"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <n v="1049"/>
+    <d v="2024-02-16T00:00:00"/>
+    <s v="Mona Rao"/>
+    <x v="5"/>
+    <s v="Fashion"/>
+    <s v="Leggings"/>
+    <s v="Delivered"/>
+    <n v="499"/>
+    <n v="2"/>
+    <s v="COD"/>
+    <n v="0"/>
+    <n v="150"/>
+  </r>
+  <r>
+    <n v="1050"/>
+    <d v="2024-02-17T00:00:00"/>
+    <s v="Sunny Kumar"/>
+    <x v="1"/>
+    <s v="Home Decor"/>
+    <s v="Mirror"/>
+    <s v="Delivered"/>
+    <n v="999"/>
+    <n v="1"/>
+    <s v="UPI"/>
+    <n v="5"/>
+    <n v="180"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Profit" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Unit Price" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:L51" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:L51"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Order ID"/>
+    <tableColumn id="2" name="Order Date" dataDxfId="1"/>
+    <tableColumn id="3" name="Customer Name"/>
+    <tableColumn id="4" name="City"/>
+    <tableColumn id="5" name="Category"/>
+    <tableColumn id="6" name="Product Name"/>
+    <tableColumn id="7" name="Order Status"/>
+    <tableColumn id="8" name="Unit Price"/>
+    <tableColumn id="9" name="Quantity"/>
+    <tableColumn id="10" name="Payment Mode"/>
+    <tableColumn id="11" name="Discount %"/>
+    <tableColumn id="12" name="Profit"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,20 +5521,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A3:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4">
+        <v>14661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3960</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4">
+        <v>16292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4">
+        <v>18592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4">
+        <v>21293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4">
+        <v>31192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="D1:D1048576 H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2689,388 +7614,26 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>1004</v>
-      </c>
-      <c r="B52" s="1">
-        <v>45298</v>
-      </c>
-      <c r="C52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52">
-        <v>999</v>
-      </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
-      <c r="J52" t="s">
-        <v>15</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>1010</v>
-      </c>
-      <c r="B53" s="1">
-        <v>45303</v>
-      </c>
-      <c r="C53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53">
-        <v>2999</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>15</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>1021</v>
-      </c>
-      <c r="B54" s="1">
-        <v>45312</v>
-      </c>
-      <c r="C54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54">
-        <v>699</v>
-      </c>
-      <c r="I54">
-        <v>2</v>
-      </c>
-      <c r="J54" t="s">
-        <v>25</v>
-      </c>
-      <c r="K54">
-        <v>5</v>
-      </c>
-      <c r="L54">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>1028</v>
-      </c>
-      <c r="B55" s="1">
-        <v>45319</v>
-      </c>
-      <c r="C55" t="s">
-        <v>81</v>
-      </c>
-      <c r="D55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" t="s">
-        <v>28</v>
-      </c>
-      <c r="F55" t="s">
-        <v>82</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55">
-        <v>399</v>
-      </c>
-      <c r="I55">
-        <v>4</v>
-      </c>
-      <c r="J55" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55">
-        <v>5</v>
-      </c>
-      <c r="L55">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>1033</v>
-      </c>
-      <c r="B56" s="1">
-        <v>45323</v>
-      </c>
-      <c r="C56" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" t="s">
-        <v>92</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56">
-        <v>149</v>
-      </c>
-      <c r="I56">
-        <v>6</v>
-      </c>
-      <c r="J56" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>1040</v>
-      </c>
-      <c r="B57" s="1">
-        <v>45329</v>
-      </c>
-      <c r="C57" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" t="s">
-        <v>23</v>
-      </c>
-      <c r="F57" t="s">
-        <v>106</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57">
-        <v>1999</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>20</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>1045</v>
-      </c>
-      <c r="B58" s="1">
-        <v>45334</v>
-      </c>
-      <c r="C58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58">
-        <v>1299</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>15</v>
-      </c>
-      <c r="K58">
-        <v>5</v>
-      </c>
-      <c r="L58">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>1014</v>
-      </c>
-      <c r="B59" s="1">
-        <v>45306</v>
-      </c>
-      <c r="C59" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" t="s">
-        <v>35</v>
-      </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" t="s">
-        <v>54</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59">
-        <v>2499</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59">
-        <v>10</v>
-      </c>
-      <c r="L59">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>1036</v>
-      </c>
-      <c r="B60" s="1">
-        <v>45326</v>
-      </c>
-      <c r="C60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60">
-        <v>5999</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>25</v>
-      </c>
-      <c r="K60">
-        <v>10</v>
-      </c>
-      <c r="L60">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>1001</v>
-      </c>
-      <c r="B61" s="1">
-        <v>45294</v>
-      </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61">
-        <v>799</v>
-      </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
-      <c r="J61" t="s">
-        <v>15</v>
-      </c>
-      <c r="K61">
-        <v>5</v>
-      </c>
-      <c r="L61">
-        <v>350</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>